--- a/Client/Assets/02. Scripts/Parse/GameData/Item.xlsx
+++ b/Client/Assets/02. Scripts/Parse/GameData/Item.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605EF9BC-1741-4A56-B419-42183B4FAA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1F74B-487B-4DA1-8977-ED3DC401C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Item_List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name(Info)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +272,10 @@
   </si>
   <si>
     <t>Skin_Gray</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,52 +729,52 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -789,15 +789,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -814,15 +814,15 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201001</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -837,15 +837,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201002</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -860,15 +860,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201003</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -883,15 +883,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>201004</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -906,15 +906,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201005</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -929,15 +929,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>201006</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -952,15 +952,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>201007</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -975,15 +975,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>201008</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -998,15 +998,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>201009</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1021,15 +1021,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>201010</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1044,15 +1044,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>313001</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>21</v>
@@ -1067,15 +1067,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>322001</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>22</v>
@@ -1090,15 +1090,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>333001</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>23</v>
@@ -1113,15 +1113,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>332001</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>23</v>
@@ -1136,15 +1136,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>332002</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>23</v>
@@ -1159,15 +1159,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>332003</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>23</v>
@@ -1182,15 +1182,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>331001</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>23</v>
@@ -1205,15 +1205,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>331002</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>23</v>
@@ -1228,15 +1228,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331003</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>23</v>
@@ -1260,21 +1260,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1432,31 +1417,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1472,4 +1448,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>